--- a/data/philippines/analysis/panay/flood_trigger_analysis_2025_10_5yr_lead3d.xlsx
+++ b/data/philippines/analysis/panay/flood_trigger_analysis_2025_10_5yr_lead3d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3398,107 @@
         <v>-75.69235687837521</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Panay River Basin</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>panay</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dao Bridge</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>G5369</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.4249999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>122.7249999999997</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>603.6038567117938</v>
+      </c>
+      <c r="P30" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>50</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>243.98828125</v>
+      </c>
+      <c r="U30" t="n">
+        <v>252.8243713378906</v>
+      </c>
+      <c r="V30" t="n">
+        <v>151.3125</v>
+      </c>
+      <c r="W30" t="n">
+        <v>445.3984375</v>
+      </c>
+      <c r="X30" t="n">
+        <v>212.97265625</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>270.123046875</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-71.78548098900235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/philippines/analysis/panay/flood_trigger_analysis_2025_10_5yr_lead3d.xlsx
+++ b/data/philippines/analysis/panay/flood_trigger_analysis_2025_10_5yr_lead3d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3499,6 +3499,208 @@
         <v>-71.78548098900235</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Panay River Basin</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>panay</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dao Bridge</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>G5369</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.4249999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>122.7249999999997</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>603.6038567117938</v>
+      </c>
+      <c r="P31" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>50</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>187.921875</v>
+      </c>
+      <c r="U31" t="n">
+        <v>188.5568695068359</v>
+      </c>
+      <c r="V31" t="n">
+        <v>141.125</v>
+      </c>
+      <c r="W31" t="n">
+        <v>271.484375</v>
+      </c>
+      <c r="X31" t="n">
+        <v>169.521484375</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>207.759765625</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-78.26893452584693</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Panay River Basin</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>panay</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dao Bridge</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>G5369</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.4249999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>122.7249999999997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>603.6038567117938</v>
+      </c>
+      <c r="P32" t="n">
+        <v>864.7614412809821</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>50</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>154.6328125</v>
+      </c>
+      <c r="U32" t="n">
+        <v>157.0551605224609</v>
+      </c>
+      <c r="V32" t="n">
+        <v>124.7890625</v>
+      </c>
+      <c r="W32" t="n">
+        <v>210.2890625</v>
+      </c>
+      <c r="X32" t="n">
+        <v>144.919921875</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>163.240234375</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-82.1184427151446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
